--- a/unit_lists/AFL_all.xlsx
+++ b/unit_lists/AFL_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eguchimasaki/Dropbox/0_Projects/009_MWU_profiler/unit_lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C89FE1-ADF2-814C-81CE-3E55491E176F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36292BF5-0AF8-F243-AB87-8776909CEE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,18 +655,9 @@
     <t>Spoken_Raw freq</t>
   </si>
   <si>
-    <t>Spoken_Freq per million</t>
-  </si>
-  <si>
     <t>Written_Raw freq</t>
   </si>
   <si>
-    <t>Written_Freq per million</t>
-  </si>
-  <si>
-    <t>band</t>
-  </si>
-  <si>
     <t>Core</t>
   </si>
   <si>
@@ -1874,6 +1865,15 @@
   </si>
   <si>
     <t>Spoken</t>
+  </si>
+  <si>
+    <t>Sub-list</t>
+  </si>
+  <si>
+    <t>Spoken Frequency (per million words)</t>
+  </si>
+  <si>
+    <t>Written Frequency (per million words)</t>
   </si>
 </sst>
 </file>
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="I412" sqref="I412"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>615</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2740,13 +2740,13 @@
         <v>210</v>
       </c>
       <c r="E1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" t="s">
         <v>211</v>
       </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>617</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -2757,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2809,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2835,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2861,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2913,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2939,7 +2939,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2965,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3017,7 +3017,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3043,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3069,7 +3069,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3095,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3121,7 +3121,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3147,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3173,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3225,7 +3225,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3277,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -3303,7 +3303,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3329,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -3355,7 +3355,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -3381,7 +3381,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3407,7 +3407,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3433,7 +3433,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3459,7 +3459,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3485,7 +3485,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3511,7 +3511,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3537,7 +3537,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -3563,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3589,7 +3589,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -3615,7 +3615,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -3641,7 +3641,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -3667,7 +3667,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -3693,7 +3693,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -3719,7 +3719,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -3745,7 +3745,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -3771,7 +3771,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -3797,7 +3797,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -3823,7 +3823,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -3849,7 +3849,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -3875,7 +3875,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -3901,7 +3901,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -3927,7 +3927,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -3953,7 +3953,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -3979,7 +3979,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4005,7 +4005,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4031,7 +4031,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4057,7 +4057,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -4083,7 +4083,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4109,7 +4109,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -4135,7 +4135,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -4161,7 +4161,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4187,7 +4187,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4213,7 +4213,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4239,7 +4239,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4265,7 +4265,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4291,7 +4291,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4317,7 +4317,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4343,7 +4343,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -4369,7 +4369,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4395,7 +4395,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -4421,7 +4421,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -4447,7 +4447,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -4473,7 +4473,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -4499,7 +4499,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -4525,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -4551,7 +4551,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -4577,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -4603,7 +4603,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -4629,7 +4629,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -4655,7 +4655,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -4681,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -4707,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -4733,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -4759,7 +4759,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -4785,7 +4785,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -4811,7 +4811,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -4837,7 +4837,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -4863,7 +4863,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -4889,7 +4889,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -4915,7 +4915,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -4941,7 +4941,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -4967,7 +4967,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -4993,7 +4993,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5019,7 +5019,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -5045,7 +5045,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -5071,7 +5071,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -5097,7 +5097,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -5123,7 +5123,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -5149,7 +5149,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -5175,7 +5175,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -5201,7 +5201,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -5227,7 +5227,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -5253,7 +5253,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -5279,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -5305,7 +5305,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -5331,7 +5331,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -5357,7 +5357,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C102">
         <v>101</v>
@@ -5383,7 +5383,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -5409,7 +5409,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -5435,7 +5435,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C105">
         <v>104</v>
@@ -5461,7 +5461,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -5487,7 +5487,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -5513,7 +5513,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -5539,7 +5539,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C109">
         <v>108</v>
@@ -5565,7 +5565,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C110">
         <v>109</v>
@@ -5591,7 +5591,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -5617,7 +5617,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -5643,7 +5643,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -5669,7 +5669,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C114">
         <v>113</v>
@@ -5695,7 +5695,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C115">
         <v>114</v>
@@ -5721,7 +5721,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -5747,7 +5747,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -5773,7 +5773,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -5799,7 +5799,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C119">
         <v>118</v>
@@ -5825,7 +5825,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C120">
         <v>119</v>
@@ -5851,7 +5851,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C121">
         <v>120</v>
@@ -5877,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -5903,7 +5903,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -5929,7 +5929,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C124">
         <v>123</v>
@@ -5955,7 +5955,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C125">
         <v>124</v>
@@ -5981,7 +5981,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C126">
         <v>125</v>
@@ -6007,7 +6007,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C127">
         <v>126</v>
@@ -6033,7 +6033,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -6059,7 +6059,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -6085,7 +6085,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -6111,7 +6111,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C131">
         <v>130</v>
@@ -6137,7 +6137,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C132">
         <v>131</v>
@@ -6163,7 +6163,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C133">
         <v>132</v>
@@ -6189,7 +6189,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C134">
         <v>133</v>
@@ -6215,7 +6215,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C135">
         <v>134</v>
@@ -6241,7 +6241,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C136">
         <v>135</v>
@@ -6267,7 +6267,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C137">
         <v>136</v>
@@ -6293,7 +6293,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C138">
         <v>137</v>
@@ -6319,7 +6319,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C139">
         <v>138</v>
@@ -6345,7 +6345,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C140">
         <v>139</v>
@@ -6371,7 +6371,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C141">
         <v>140</v>
@@ -6397,7 +6397,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -6423,7 +6423,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C143">
         <v>142</v>
@@ -6449,7 +6449,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C144">
         <v>143</v>
@@ -6475,7 +6475,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -6501,7 +6501,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -6527,7 +6527,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C147">
         <v>146</v>
@@ -6553,7 +6553,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -6579,7 +6579,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -6605,7 +6605,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -6631,7 +6631,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C151">
         <v>150</v>
@@ -6657,7 +6657,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C152">
         <v>151</v>
@@ -6683,7 +6683,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C153">
         <v>152</v>
@@ -6709,7 +6709,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C154">
         <v>153</v>
@@ -6735,7 +6735,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C155">
         <v>154</v>
@@ -6761,7 +6761,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C156">
         <v>155</v>
@@ -6787,7 +6787,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C157">
         <v>156</v>
@@ -6813,7 +6813,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C158">
         <v>157</v>
@@ -6839,7 +6839,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C159">
         <v>158</v>
@@ -6865,7 +6865,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C160">
         <v>159</v>
@@ -6891,7 +6891,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C161">
         <v>160</v>
@@ -6917,7 +6917,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C162">
         <v>161</v>
@@ -6943,7 +6943,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C163">
         <v>162</v>
@@ -6969,7 +6969,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C164">
         <v>163</v>
@@ -6995,7 +6995,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C165">
         <v>164</v>
@@ -7021,7 +7021,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C166">
         <v>165</v>
@@ -7047,7 +7047,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C167">
         <v>166</v>
@@ -7073,7 +7073,7 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C168">
         <v>167</v>
@@ -7099,7 +7099,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C169">
         <v>168</v>
@@ -7125,7 +7125,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C170">
         <v>169</v>
@@ -7151,7 +7151,7 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C171">
         <v>170</v>
@@ -7177,7 +7177,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C172">
         <v>171</v>
@@ -7203,7 +7203,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C173">
         <v>172</v>
@@ -7229,7 +7229,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C174">
         <v>173</v>
@@ -7255,7 +7255,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C175">
         <v>174</v>
@@ -7281,7 +7281,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C176">
         <v>175</v>
@@ -7307,7 +7307,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C177">
         <v>176</v>
@@ -7333,7 +7333,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C178">
         <v>177</v>
@@ -7359,7 +7359,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C179">
         <v>178</v>
@@ -7385,7 +7385,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C180">
         <v>179</v>
@@ -7411,7 +7411,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C181">
         <v>180</v>
@@ -7437,7 +7437,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C182">
         <v>181</v>
@@ -7463,7 +7463,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C183">
         <v>182</v>
@@ -7489,7 +7489,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C184">
         <v>183</v>
@@ -7515,7 +7515,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C185">
         <v>184</v>
@@ -7541,7 +7541,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C186">
         <v>185</v>
@@ -7567,7 +7567,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C187">
         <v>186</v>
@@ -7593,7 +7593,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C188">
         <v>187</v>
@@ -7619,7 +7619,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C189">
         <v>188</v>
@@ -7645,7 +7645,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C190">
         <v>189</v>
@@ -7671,7 +7671,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C191">
         <v>190</v>
@@ -7697,7 +7697,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C192">
         <v>191</v>
@@ -7723,7 +7723,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C193">
         <v>192</v>
@@ -7749,7 +7749,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C194">
         <v>193</v>
@@ -7775,7 +7775,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C195">
         <v>194</v>
@@ -7801,7 +7801,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>195</v>
@@ -7827,7 +7827,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C197">
         <v>196</v>
@@ -7853,7 +7853,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C198">
         <v>197</v>
@@ -7879,7 +7879,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C199">
         <v>198</v>
@@ -7905,7 +7905,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C200">
         <v>199</v>
@@ -7931,7 +7931,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C201">
         <v>200</v>
@@ -7957,7 +7957,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C202">
         <v>201</v>
@@ -7983,7 +7983,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C203">
         <v>202</v>
@@ -8009,7 +8009,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C204">
         <v>203</v>
@@ -8035,7 +8035,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C205">
         <v>204</v>
@@ -8061,7 +8061,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C206">
         <v>205</v>
@@ -8087,7 +8087,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C207">
         <v>206</v>
@@ -8113,7 +8113,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C208">
         <v>207</v>
@@ -8136,10 +8136,10 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -8188,10 +8188,10 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -8214,10 +8214,10 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C212">
         <v>4</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C213">
         <v>5</v>
@@ -8266,10 +8266,10 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C214">
         <v>6</v>
@@ -8292,10 +8292,10 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C215">
         <v>7</v>
@@ -8318,10 +8318,10 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B216" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C216">
         <v>8</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C217">
         <v>9</v>
@@ -8370,10 +8370,10 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C218">
         <v>10</v>
@@ -8396,10 +8396,10 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B219" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C219">
         <v>11</v>
@@ -8422,10 +8422,10 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B220" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C220">
         <v>12</v>
@@ -8448,10 +8448,10 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B221" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C221">
         <v>13</v>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C222">
         <v>14</v>
@@ -8500,10 +8500,10 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C223">
         <v>15</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C224">
         <v>16</v>
@@ -8552,10 +8552,10 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C225">
         <v>17</v>
@@ -8578,10 +8578,10 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B226" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C226">
         <v>18</v>
@@ -8604,10 +8604,10 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C227">
         <v>19</v>
@@ -8630,10 +8630,10 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B228" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C228">
         <v>20</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B229" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C229">
         <v>21</v>
@@ -8682,10 +8682,10 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B230" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C230">
         <v>22</v>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C231">
         <v>23</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B232" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C232">
         <v>24</v>
@@ -8760,10 +8760,10 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B233" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C233">
         <v>25</v>
@@ -8786,10 +8786,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C234">
         <v>26</v>
@@ -8812,10 +8812,10 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C235">
         <v>27</v>
@@ -8838,10 +8838,10 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C236">
         <v>28</v>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C237">
         <v>29</v>
@@ -8890,10 +8890,10 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C238">
         <v>30</v>
@@ -8916,10 +8916,10 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C239">
         <v>31</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C240">
         <v>32</v>
@@ -8968,10 +8968,10 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C241">
         <v>33</v>
@@ -8994,10 +8994,10 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C242">
         <v>34</v>
@@ -9020,10 +9020,10 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C243">
         <v>35</v>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C244">
         <v>36</v>
@@ -9072,10 +9072,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C245">
         <v>37</v>
@@ -9098,10 +9098,10 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C246">
         <v>38</v>
@@ -9124,10 +9124,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C247">
         <v>39</v>
@@ -9150,10 +9150,10 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C248">
         <v>40</v>
@@ -9176,10 +9176,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C249">
         <v>41</v>
@@ -9202,10 +9202,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C250">
         <v>42</v>
@@ -9228,10 +9228,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C251">
         <v>43</v>
@@ -9254,10 +9254,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C252">
         <v>44</v>
@@ -9280,10 +9280,10 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B253" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C253">
         <v>45</v>
@@ -9306,10 +9306,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B254" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C254">
         <v>46</v>
@@ -9332,10 +9332,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C255">
         <v>47</v>
@@ -9358,10 +9358,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C256">
         <v>48</v>
@@ -9384,10 +9384,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C257">
         <v>49</v>
@@ -9410,10 +9410,10 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C258">
         <v>50</v>
@@ -9436,10 +9436,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C259">
         <v>51</v>
@@ -9462,10 +9462,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C260">
         <v>52</v>
@@ -9488,10 +9488,10 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C261">
         <v>53</v>
@@ -9514,10 +9514,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C262">
         <v>54</v>
@@ -9540,10 +9540,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B263" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C263">
         <v>55</v>
@@ -9566,10 +9566,10 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B264" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C264">
         <v>56</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B265" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C265">
         <v>57</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B266" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C266">
         <v>58</v>
@@ -9644,10 +9644,10 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B267" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C267">
         <v>59</v>
@@ -9670,10 +9670,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B268" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C268">
         <v>60</v>
@@ -9696,10 +9696,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B269" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C269">
         <v>61</v>
@@ -9722,10 +9722,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C270">
         <v>62</v>
@@ -9748,10 +9748,10 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B271" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C271">
         <v>63</v>
@@ -9774,10 +9774,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B272" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C272">
         <v>64</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B273" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C273">
         <v>65</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B274" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C274">
         <v>66</v>
@@ -9852,10 +9852,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B275" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C275">
         <v>67</v>
@@ -9878,10 +9878,10 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B276" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C276">
         <v>68</v>
@@ -9904,10 +9904,10 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B277" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C277">
         <v>69</v>
@@ -9930,10 +9930,10 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B278" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C278">
         <v>70</v>
@@ -9956,10 +9956,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B279" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C279">
         <v>71</v>
@@ -9982,10 +9982,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C280">
         <v>72</v>
@@ -10008,10 +10008,10 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C281">
         <v>73</v>
@@ -10034,10 +10034,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C282">
         <v>74</v>
@@ -10060,10 +10060,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B283" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C283">
         <v>75</v>
@@ -10086,10 +10086,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B284" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C284">
         <v>76</v>
@@ -10112,10 +10112,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B285" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C285">
         <v>77</v>
@@ -10138,10 +10138,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B286" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C286">
         <v>78</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B287" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C287">
         <v>79</v>
@@ -10190,10 +10190,10 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B288" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C288">
         <v>80</v>
@@ -10216,10 +10216,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B289" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C289">
         <v>81</v>
@@ -10242,10 +10242,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B290" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C290">
         <v>82</v>
@@ -10268,10 +10268,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B291" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C291">
         <v>83</v>
@@ -10294,10 +10294,10 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B292" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C292">
         <v>84</v>
@@ -10320,10 +10320,10 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B293" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C293">
         <v>85</v>
@@ -10346,10 +10346,10 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B294" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C294">
         <v>86</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B295" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C295">
         <v>87</v>
@@ -10398,10 +10398,10 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B296" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C296">
         <v>88</v>
@@ -10424,10 +10424,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B297" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C297">
         <v>89</v>
@@ -10450,10 +10450,10 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B298" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C298">
         <v>90</v>
@@ -10476,10 +10476,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B299" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C299">
         <v>91</v>
@@ -10502,10 +10502,10 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B300" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C300">
         <v>92</v>
@@ -10528,10 +10528,10 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B301" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C301">
         <v>93</v>
@@ -10554,10 +10554,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C302">
         <v>94</v>
@@ -10580,10 +10580,10 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B303" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C303">
         <v>95</v>
@@ -10606,10 +10606,10 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B304" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C304">
         <v>96</v>
@@ -10632,10 +10632,10 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B305" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C305">
         <v>97</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B306" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C306">
         <v>98</v>
@@ -10684,10 +10684,10 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B307" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C307">
         <v>99</v>
@@ -10710,10 +10710,10 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B308" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C308">
         <v>100</v>
@@ -10736,10 +10736,10 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B309" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C309">
         <v>101</v>
@@ -10762,10 +10762,10 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B310" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C310">
         <v>102</v>
@@ -10788,10 +10788,10 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B311" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C311">
         <v>103</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B312" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C312">
         <v>104</v>
@@ -10840,10 +10840,10 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B313" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C313">
         <v>105</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B314" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C314">
         <v>106</v>
@@ -10892,10 +10892,10 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B315" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C315">
         <v>107</v>
@@ -10918,10 +10918,10 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B316" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C316">
         <v>108</v>
@@ -10944,10 +10944,10 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B317" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C317">
         <v>109</v>
@@ -10970,10 +10970,10 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B318" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C318">
         <v>110</v>
@@ -10996,10 +10996,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B319" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C319">
         <v>111</v>
@@ -11022,10 +11022,10 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B320" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C320">
         <v>112</v>
@@ -11048,10 +11048,10 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B321" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C321">
         <v>113</v>
@@ -11074,10 +11074,10 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B322" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C322">
         <v>114</v>
@@ -11100,10 +11100,10 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B323" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C323">
         <v>115</v>
@@ -11126,10 +11126,10 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B324" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C324">
         <v>116</v>
@@ -11152,10 +11152,10 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B325" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C325">
         <v>117</v>
@@ -11178,10 +11178,10 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B326" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C326">
         <v>118</v>
@@ -11204,10 +11204,10 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B327" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C327">
         <v>119</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B328" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C328">
         <v>120</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B329" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C329">
         <v>121</v>
@@ -11282,10 +11282,10 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B330" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C330">
         <v>122</v>
@@ -11308,10 +11308,10 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B331" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C331">
         <v>123</v>
@@ -11334,10 +11334,10 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B332" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C332">
         <v>124</v>
@@ -11360,10 +11360,10 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B333" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C333">
         <v>125</v>
@@ -11386,10 +11386,10 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B334" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C334">
         <v>126</v>
@@ -11412,10 +11412,10 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B335" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C335">
         <v>127</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B336" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C336">
         <v>128</v>
@@ -11464,10 +11464,10 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B337" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C337">
         <v>129</v>
@@ -11490,10 +11490,10 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B338" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C338">
         <v>130</v>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B339" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C339">
         <v>131</v>
@@ -11542,10 +11542,10 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B340" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C340">
         <v>132</v>
@@ -11568,10 +11568,10 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B341" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C341">
         <v>133</v>
@@ -11594,10 +11594,10 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B342" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C342">
         <v>134</v>
@@ -11620,10 +11620,10 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B343" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C343">
         <v>135</v>
@@ -11646,10 +11646,10 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B344" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C344">
         <v>136</v>
@@ -11672,10 +11672,10 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B345" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C345">
         <v>137</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B346" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C346">
         <v>138</v>
@@ -11724,10 +11724,10 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B347" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C347">
         <v>139</v>
@@ -11750,10 +11750,10 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B348" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C348">
         <v>140</v>
@@ -11776,10 +11776,10 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B349" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C349">
         <v>141</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B350" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C350">
         <v>142</v>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B351" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C351">
         <v>143</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B352" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C352">
         <v>144</v>
@@ -11880,10 +11880,10 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B353" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C353">
         <v>145</v>
@@ -11906,10 +11906,10 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B354" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C354">
         <v>146</v>
@@ -11932,10 +11932,10 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B355" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C355">
         <v>147</v>
@@ -11958,10 +11958,10 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B356" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C356">
         <v>148</v>
@@ -11984,10 +11984,10 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B357" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C357">
         <v>149</v>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B358" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C358">
         <v>150</v>
@@ -12036,10 +12036,10 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B359" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C359">
         <v>151</v>
@@ -12062,10 +12062,10 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B360" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C360">
         <v>152</v>
@@ -12088,10 +12088,10 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B361" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C361">
         <v>153</v>
@@ -12114,10 +12114,10 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B362" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C362">
         <v>154</v>
@@ -12140,10 +12140,10 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B363" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C363">
         <v>155</v>
@@ -12166,10 +12166,10 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B364" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C364">
         <v>156</v>
@@ -12192,10 +12192,10 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B365" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C365">
         <v>157</v>
@@ -12218,10 +12218,10 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B366" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C366">
         <v>158</v>
@@ -12244,10 +12244,10 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B367" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C367">
         <v>159</v>
@@ -12270,10 +12270,10 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B368" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C368">
         <v>160</v>
@@ -12296,10 +12296,10 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B369" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C369">
         <v>161</v>
@@ -12322,10 +12322,10 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B370" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C370">
         <v>162</v>
@@ -12348,10 +12348,10 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B371" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C371">
         <v>163</v>
@@ -12374,10 +12374,10 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B372" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C372">
         <v>164</v>
@@ -12400,10 +12400,10 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B373" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C373">
         <v>165</v>
@@ -12426,10 +12426,10 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B374" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C374">
         <v>166</v>
@@ -12452,10 +12452,10 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B375" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C375">
         <v>167</v>
@@ -12478,10 +12478,10 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B376" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C376">
         <v>168</v>
@@ -12504,10 +12504,10 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B377" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C377">
         <v>169</v>
@@ -12530,10 +12530,10 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B378" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C378">
         <v>170</v>
@@ -12556,10 +12556,10 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B379" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C379">
         <v>171</v>
@@ -12582,10 +12582,10 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B380" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C380">
         <v>172</v>
@@ -12608,10 +12608,10 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B381" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C381">
         <v>173</v>
@@ -12634,10 +12634,10 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B382" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C382">
         <v>174</v>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B383" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C383">
         <v>175</v>
@@ -12686,10 +12686,10 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B384" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C384">
         <v>176</v>
@@ -12712,10 +12712,10 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B385" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C385">
         <v>177</v>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B386" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C386">
         <v>178</v>
@@ -12764,10 +12764,10 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B387" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C387">
         <v>179</v>
@@ -12790,10 +12790,10 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B388" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C388">
         <v>180</v>
@@ -12816,10 +12816,10 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B389" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C389">
         <v>181</v>
@@ -12842,10 +12842,10 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B390" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C390">
         <v>182</v>
@@ -12868,10 +12868,10 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B391" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C391">
         <v>183</v>
@@ -12894,10 +12894,10 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B392" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C392">
         <v>184</v>
@@ -12920,10 +12920,10 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B393" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C393">
         <v>185</v>
@@ -12946,10 +12946,10 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B394" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C394">
         <v>186</v>
@@ -12972,10 +12972,10 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B395" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C395">
         <v>187</v>
@@ -12998,10 +12998,10 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B396" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C396">
         <v>188</v>
@@ -13024,10 +13024,10 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B397" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C397">
         <v>189</v>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B398" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C398">
         <v>190</v>
@@ -13076,10 +13076,10 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B399" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C399">
         <v>191</v>
@@ -13102,10 +13102,10 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B400" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C400">
         <v>192</v>
@@ -13128,10 +13128,10 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B401" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C401">
         <v>193</v>
@@ -13154,10 +13154,10 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B402" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C402">
         <v>194</v>
@@ -13180,10 +13180,10 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B403" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C403">
         <v>195</v>
@@ -13206,10 +13206,10 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B404" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C404">
         <v>196</v>
@@ -13232,10 +13232,10 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B405" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C405">
         <v>197</v>
@@ -13258,10 +13258,10 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B406" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C406">
         <v>198</v>
@@ -13284,10 +13284,10 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B407" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C407">
         <v>199</v>
@@ -13310,10 +13310,10 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B408" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C408">
         <v>200</v>
@@ -13336,10 +13336,10 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B409" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -13362,10 +13362,10 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B410" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -13388,10 +13388,10 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B411" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C411">
         <v>3</v>
@@ -13414,10 +13414,10 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B412" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C412">
         <v>4</v>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B413" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C413">
         <v>5</v>
@@ -13466,10 +13466,10 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B414" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C414">
         <v>6</v>
@@ -13492,10 +13492,10 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B415" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C415">
         <v>7</v>
@@ -13518,10 +13518,10 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B416" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C416">
         <v>8</v>
@@ -13544,10 +13544,10 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B417" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C417">
         <v>9</v>
@@ -13570,10 +13570,10 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B418" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C418">
         <v>10</v>
@@ -13596,10 +13596,10 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B419" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C419">
         <v>11</v>
@@ -13622,10 +13622,10 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B420" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C420">
         <v>12</v>
@@ -13648,10 +13648,10 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B421" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C421">
         <v>13</v>
@@ -13674,10 +13674,10 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B422" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C422">
         <v>14</v>
@@ -13700,10 +13700,10 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B423" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C423">
         <v>15</v>
@@ -13726,10 +13726,10 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B424" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C424">
         <v>16</v>
@@ -13752,10 +13752,10 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B425" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C425">
         <v>17</v>
@@ -13778,10 +13778,10 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B426" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C426">
         <v>18</v>
@@ -13804,10 +13804,10 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B427" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C427">
         <v>19</v>
@@ -13830,10 +13830,10 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B428" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C428">
         <v>20</v>
@@ -13856,10 +13856,10 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B429" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C429">
         <v>21</v>
@@ -13882,10 +13882,10 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B430" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C430">
         <v>22</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B431" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C431">
         <v>23</v>
@@ -13934,10 +13934,10 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B432" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C432">
         <v>24</v>
@@ -13960,10 +13960,10 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B433" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C433">
         <v>25</v>
@@ -13986,10 +13986,10 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B434" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C434">
         <v>26</v>
@@ -14012,10 +14012,10 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B435" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C435">
         <v>27</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B436" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C436">
         <v>28</v>
@@ -14064,10 +14064,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B437" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C437">
         <v>29</v>
@@ -14090,10 +14090,10 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B438" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C438">
         <v>30</v>
@@ -14116,10 +14116,10 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B439" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C439">
         <v>31</v>
@@ -14142,10 +14142,10 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B440" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C440">
         <v>32</v>
@@ -14168,10 +14168,10 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B441" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C441">
         <v>33</v>
@@ -14194,10 +14194,10 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B442" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C442">
         <v>34</v>
@@ -14220,10 +14220,10 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B443" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C443">
         <v>35</v>
@@ -14246,10 +14246,10 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B444" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C444">
         <v>36</v>
@@ -14272,10 +14272,10 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B445" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C445">
         <v>37</v>
@@ -14298,10 +14298,10 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B446" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C446">
         <v>38</v>
@@ -14324,10 +14324,10 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B447" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C447">
         <v>39</v>
@@ -14350,10 +14350,10 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B448" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C448">
         <v>40</v>
@@ -14376,10 +14376,10 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B449" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C449">
         <v>41</v>
@@ -14402,10 +14402,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B450" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C450">
         <v>42</v>
@@ -14428,10 +14428,10 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B451" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C451">
         <v>43</v>
@@ -14454,10 +14454,10 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B452" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C452">
         <v>44</v>
@@ -14480,10 +14480,10 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B453" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C453">
         <v>45</v>
@@ -14506,10 +14506,10 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B454" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C454">
         <v>46</v>
@@ -14532,10 +14532,10 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B455" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C455">
         <v>47</v>
@@ -14558,10 +14558,10 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B456" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C456">
         <v>48</v>
@@ -14584,10 +14584,10 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B457" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C457">
         <v>49</v>
@@ -14610,10 +14610,10 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B458" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C458">
         <v>50</v>
@@ -14636,10 +14636,10 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B459" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C459">
         <v>51</v>
@@ -14662,10 +14662,10 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B460" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C460">
         <v>52</v>
@@ -14688,10 +14688,10 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B461" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C461">
         <v>53</v>
@@ -14714,10 +14714,10 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B462" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C462">
         <v>54</v>
@@ -14740,10 +14740,10 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B463" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C463">
         <v>55</v>
@@ -14766,10 +14766,10 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B464" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C464">
         <v>56</v>
@@ -14792,10 +14792,10 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B465" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C465">
         <v>57</v>
@@ -14818,10 +14818,10 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B466" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C466">
         <v>58</v>
@@ -14844,10 +14844,10 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B467" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C467">
         <v>59</v>
@@ -14870,10 +14870,10 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B468" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C468">
         <v>60</v>
@@ -14896,10 +14896,10 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B469" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C469">
         <v>61</v>
@@ -14922,10 +14922,10 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B470" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C470">
         <v>62</v>
@@ -14948,10 +14948,10 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B471" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C471">
         <v>63</v>
@@ -14974,10 +14974,10 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B472" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C472">
         <v>64</v>
@@ -15000,10 +15000,10 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B473" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C473">
         <v>65</v>
@@ -15026,10 +15026,10 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B474" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C474">
         <v>66</v>
@@ -15052,10 +15052,10 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B475" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C475">
         <v>67</v>
@@ -15078,10 +15078,10 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B476" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C476">
         <v>68</v>
@@ -15104,10 +15104,10 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B477" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C477">
         <v>69</v>
@@ -15130,10 +15130,10 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B478" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C478">
         <v>70</v>
@@ -15156,10 +15156,10 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B479" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C479">
         <v>71</v>
@@ -15182,10 +15182,10 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B480" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C480">
         <v>72</v>
@@ -15208,10 +15208,10 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B481" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C481">
         <v>73</v>
@@ -15234,10 +15234,10 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B482" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C482">
         <v>74</v>
@@ -15260,10 +15260,10 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B483" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C483">
         <v>75</v>
@@ -15286,10 +15286,10 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B484" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C484">
         <v>76</v>
@@ -15312,10 +15312,10 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B485" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C485">
         <v>77</v>
@@ -15338,10 +15338,10 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B486" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C486">
         <v>78</v>
@@ -15364,10 +15364,10 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B487" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C487">
         <v>79</v>
@@ -15390,10 +15390,10 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B488" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C488">
         <v>80</v>
@@ -15416,10 +15416,10 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B489" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C489">
         <v>81</v>
@@ -15442,10 +15442,10 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B490" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C490">
         <v>82</v>
@@ -15468,10 +15468,10 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B491" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C491">
         <v>83</v>
@@ -15494,10 +15494,10 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B492" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C492">
         <v>84</v>
@@ -15520,10 +15520,10 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B493" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C493">
         <v>85</v>
@@ -15546,10 +15546,10 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B494" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C494">
         <v>86</v>
@@ -15572,10 +15572,10 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B495" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C495">
         <v>87</v>
@@ -15598,10 +15598,10 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B496" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C496">
         <v>88</v>
@@ -15624,10 +15624,10 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B497" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C497">
         <v>89</v>
@@ -15650,10 +15650,10 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B498" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C498">
         <v>90</v>
@@ -15676,10 +15676,10 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B499" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C499">
         <v>91</v>
@@ -15702,10 +15702,10 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B500" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C500">
         <v>92</v>
@@ -15728,10 +15728,10 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B501" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C501">
         <v>93</v>
@@ -15754,10 +15754,10 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B502" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C502">
         <v>94</v>
@@ -15780,10 +15780,10 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B503" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C503">
         <v>95</v>
@@ -15806,10 +15806,10 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B504" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C504">
         <v>96</v>
@@ -15832,10 +15832,10 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B505" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C505">
         <v>97</v>
@@ -15858,10 +15858,10 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B506" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C506">
         <v>98</v>
@@ -15884,10 +15884,10 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B507" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C507">
         <v>99</v>
@@ -15910,10 +15910,10 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B508" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C508">
         <v>100</v>
@@ -15936,10 +15936,10 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B509" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C509">
         <v>101</v>
@@ -15962,10 +15962,10 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B510" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C510">
         <v>102</v>
@@ -15988,10 +15988,10 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B511" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C511">
         <v>103</v>
@@ -16014,10 +16014,10 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B512" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C512">
         <v>104</v>
@@ -16040,10 +16040,10 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B513" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C513">
         <v>105</v>
@@ -16066,10 +16066,10 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B514" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C514">
         <v>106</v>
@@ -16092,10 +16092,10 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B515" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C515">
         <v>107</v>
@@ -16118,10 +16118,10 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B516" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C516">
         <v>108</v>
@@ -16144,10 +16144,10 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B517" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C517">
         <v>109</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B518" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C518">
         <v>110</v>
@@ -16196,10 +16196,10 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B519" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C519">
         <v>111</v>
@@ -16222,10 +16222,10 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B520" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C520">
         <v>112</v>
@@ -16248,10 +16248,10 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B521" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C521">
         <v>113</v>
@@ -16274,10 +16274,10 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B522" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C522">
         <v>114</v>
@@ -16300,10 +16300,10 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B523" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C523">
         <v>115</v>
@@ -16326,10 +16326,10 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B524" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C524">
         <v>116</v>
@@ -16352,10 +16352,10 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B525" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C525">
         <v>117</v>
@@ -16378,10 +16378,10 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B526" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C526">
         <v>118</v>
@@ -16404,10 +16404,10 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B527" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C527">
         <v>119</v>
@@ -16430,10 +16430,10 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B528" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C528">
         <v>120</v>
@@ -16456,10 +16456,10 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B529" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C529">
         <v>121</v>
@@ -16482,10 +16482,10 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B530" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C530">
         <v>122</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B531" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C531">
         <v>123</v>
@@ -16534,10 +16534,10 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B532" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C532">
         <v>124</v>
@@ -16560,10 +16560,10 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B533" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C533">
         <v>125</v>
@@ -16586,10 +16586,10 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B534" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C534">
         <v>126</v>
@@ -16612,10 +16612,10 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B535" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C535">
         <v>127</v>
@@ -16638,10 +16638,10 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B536" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C536">
         <v>128</v>
@@ -16664,10 +16664,10 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B537" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C537">
         <v>129</v>
@@ -16690,10 +16690,10 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B538" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C538">
         <v>130</v>
@@ -16716,10 +16716,10 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B539" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C539">
         <v>131</v>
@@ -16742,10 +16742,10 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B540" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C540">
         <v>132</v>
@@ -16768,10 +16768,10 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B541" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C541">
         <v>133</v>
@@ -16794,10 +16794,10 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B542" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C542">
         <v>134</v>
@@ -16820,10 +16820,10 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B543" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C543">
         <v>135</v>
@@ -16846,10 +16846,10 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B544" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C544">
         <v>136</v>
@@ -16872,10 +16872,10 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B545" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C545">
         <v>137</v>
@@ -16898,10 +16898,10 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B546" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C546">
         <v>138</v>
@@ -16924,10 +16924,10 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B547" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C547">
         <v>139</v>
@@ -16950,10 +16950,10 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B548" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C548">
         <v>140</v>
@@ -16976,10 +16976,10 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B549" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C549">
         <v>141</v>
@@ -17002,10 +17002,10 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B550" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C550">
         <v>142</v>
@@ -17028,10 +17028,10 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B551" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C551">
         <v>143</v>
@@ -17054,10 +17054,10 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B552" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C552">
         <v>144</v>
@@ -17080,10 +17080,10 @@
     </row>
     <row r="553" spans="1:8">
       <c r="A553" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B553" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C553">
         <v>145</v>
@@ -17106,10 +17106,10 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B554" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C554">
         <v>146</v>
@@ -17132,10 +17132,10 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B555" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C555">
         <v>147</v>
@@ -17158,10 +17158,10 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B556" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C556">
         <v>148</v>
@@ -17184,10 +17184,10 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B557" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C557">
         <v>149</v>
@@ -17210,10 +17210,10 @@
     </row>
     <row r="558" spans="1:8">
       <c r="A558" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B558" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C558">
         <v>150</v>
@@ -17236,10 +17236,10 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B559" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C559">
         <v>151</v>
@@ -17262,10 +17262,10 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B560" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C560">
         <v>152</v>
@@ -17288,10 +17288,10 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B561" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C561">
         <v>153</v>
@@ -17314,10 +17314,10 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B562" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C562">
         <v>154</v>
@@ -17340,10 +17340,10 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B563" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C563">
         <v>155</v>
@@ -17366,10 +17366,10 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B564" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C564">
         <v>156</v>
@@ -17392,10 +17392,10 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B565" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C565">
         <v>157</v>
@@ -17418,10 +17418,10 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B566" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C566">
         <v>158</v>
@@ -17444,10 +17444,10 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B567" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C567">
         <v>159</v>
@@ -17470,10 +17470,10 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B568" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C568">
         <v>160</v>
@@ -17496,10 +17496,10 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B569" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C569">
         <v>161</v>
@@ -17522,10 +17522,10 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B570" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C570">
         <v>162</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B571" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C571">
         <v>163</v>
@@ -17574,10 +17574,10 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B572" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C572">
         <v>164</v>
@@ -17600,10 +17600,10 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B573" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C573">
         <v>165</v>
@@ -17626,10 +17626,10 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B574" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C574">
         <v>166</v>
@@ -17652,10 +17652,10 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B575" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C575">
         <v>167</v>
@@ -17678,10 +17678,10 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B576" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C576">
         <v>168</v>
@@ -17704,10 +17704,10 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B577" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C577">
         <v>169</v>
@@ -17730,10 +17730,10 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B578" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C578">
         <v>170</v>
@@ -17756,10 +17756,10 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B579" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C579">
         <v>171</v>
@@ -17782,10 +17782,10 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B580" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C580">
         <v>172</v>
@@ -17808,10 +17808,10 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B581" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C581">
         <v>173</v>
@@ -17834,10 +17834,10 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B582" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C582">
         <v>174</v>
@@ -17860,10 +17860,10 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B583" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C583">
         <v>175</v>
@@ -17886,10 +17886,10 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B584" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C584">
         <v>176</v>
@@ -17912,10 +17912,10 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B585" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C585">
         <v>177</v>
@@ -17938,10 +17938,10 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B586" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C586">
         <v>178</v>
@@ -17964,10 +17964,10 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B587" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C587">
         <v>179</v>
@@ -17990,10 +17990,10 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B588" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C588">
         <v>180</v>
@@ -18016,10 +18016,10 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B589" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C589">
         <v>181</v>
@@ -18042,10 +18042,10 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B590" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C590">
         <v>182</v>
@@ -18068,10 +18068,10 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B591" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C591">
         <v>183</v>
@@ -18094,10 +18094,10 @@
     </row>
     <row r="592" spans="1:8">
       <c r="A592" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B592" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C592">
         <v>184</v>
@@ -18120,10 +18120,10 @@
     </row>
     <row r="593" spans="1:8">
       <c r="A593" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B593" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C593">
         <v>185</v>
@@ -18146,10 +18146,10 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B594" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C594">
         <v>186</v>
@@ -18172,10 +18172,10 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B595" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C595">
         <v>187</v>
@@ -18198,10 +18198,10 @@
     </row>
     <row r="596" spans="1:8">
       <c r="A596" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B596" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C596">
         <v>188</v>
@@ -18224,10 +18224,10 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B597" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C597">
         <v>189</v>
@@ -18250,10 +18250,10 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B598" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C598">
         <v>190</v>
@@ -18276,10 +18276,10 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B599" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C599">
         <v>191</v>
@@ -18302,10 +18302,10 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B600" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C600">
         <v>192</v>
@@ -18328,10 +18328,10 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B601" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C601">
         <v>193</v>
@@ -18354,10 +18354,10 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B602" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C602">
         <v>194</v>
@@ -18380,10 +18380,10 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B603" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C603">
         <v>195</v>
@@ -18406,10 +18406,10 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B604" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C604">
         <v>196</v>
@@ -18432,10 +18432,10 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B605" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C605">
         <v>197</v>
@@ -18458,10 +18458,10 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B606" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C606">
         <v>198</v>
@@ -18484,10 +18484,10 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B607" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C607">
         <v>199</v>
@@ -18510,10 +18510,10 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B608" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C608">
         <v>200</v>
